--- a/microservices/review_service/data/reviews.xlsx
+++ b/microservices/review_service/data/reviews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,6 +575,26 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ok ngon</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>âss</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/microservices/review_service/data/reviews.xlsx
+++ b/microservices/review_service/data/reviews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,6 +595,46 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
